--- a/output/EXPLORITAS_19628666000117.xlsx
+++ b/output/EXPLORITAS_19628666000117.xlsx
@@ -1274,10 +1274,10 @@
         <v>44165</v>
       </c>
       <c r="B81">
-        <v>0.8388317509999998</v>
+        <v>0.8313743930000002</v>
       </c>
       <c r="C81">
-        <v>0.08097010745534416</v>
+        <v>0.07658624739081743</v>
       </c>
     </row>
   </sheetData>

--- a/output/EXPLORITAS_19628666000117.xlsx
+++ b/output/EXPLORITAS_19628666000117.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>EXPLORITAS ALPHA AMERICA LATINA FUNDO DE INVESTIMENTO EM COTAS DE FI MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41759</v>
       </c>
@@ -411,873 +405,636 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41790</v>
       </c>
       <c r="B3">
         <v>0.05469108600000006</v>
       </c>
-      <c r="C3">
-        <v>0.05469108600000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41820</v>
       </c>
       <c r="B4">
-        <v>0.08559775699999994</v>
-      </c>
-      <c r="C4">
         <v>0.02930400323872639</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41851</v>
       </c>
       <c r="B5">
-        <v>0.1199771519999999</v>
-      </c>
-      <c r="C5">
         <v>0.03166863120186059</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41882</v>
       </c>
       <c r="B6">
-        <v>0.1368548279999999</v>
-      </c>
-      <c r="C6">
         <v>0.01506966099251272</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41912</v>
       </c>
       <c r="B7">
-        <v>0.1648312240000001</v>
-      </c>
-      <c r="C7">
         <v>0.02460859144981353</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41943</v>
       </c>
       <c r="B8">
-        <v>0.2010295630000001</v>
-      </c>
-      <c r="C8">
         <v>0.0310760376732484</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41973</v>
       </c>
       <c r="B9">
-        <v>0.208999538</v>
-      </c>
-      <c r="C9">
         <v>0.006635952390790623</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42004</v>
       </c>
       <c r="B10">
-        <v>0.2580322150000001</v>
-      </c>
-      <c r="C10">
         <v>0.04055640673040517</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42035</v>
       </c>
       <c r="B11">
-        <v>0.274049601</v>
-      </c>
-      <c r="C11">
         <v>0.0127320952587846</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42063</v>
       </c>
       <c r="B12">
-        <v>0.259242516</v>
-      </c>
-      <c r="C12">
         <v>-0.0116220632135341</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42094</v>
       </c>
       <c r="B13">
-        <v>0.1722611940000001</v>
-      </c>
-      <c r="C13">
         <v>-0.06907432118500667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42124</v>
       </c>
       <c r="B14">
-        <v>0.187214572</v>
-      </c>
-      <c r="C14">
         <v>0.0127560121213055</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42155</v>
       </c>
       <c r="B15">
-        <v>0.2306260529999999</v>
-      </c>
-      <c r="C15">
         <v>0.03656582560881838</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42185</v>
       </c>
       <c r="B16">
-        <v>0.251331652</v>
-      </c>
-      <c r="C16">
         <v>0.0168252565021878</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42216</v>
       </c>
       <c r="B17">
-        <v>0.2456009939999999</v>
-      </c>
-      <c r="C17">
         <v>-0.004579647602488746</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42247</v>
       </c>
       <c r="B18">
-        <v>0.252174396</v>
-      </c>
-      <c r="C18">
         <v>0.005277293476533718</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42277</v>
       </c>
       <c r="B19">
-        <v>0.1434733260000001</v>
-      </c>
-      <c r="C19">
         <v>-0.0868098488095902</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42308</v>
       </c>
       <c r="B20">
-        <v>0.1901085999999998</v>
-      </c>
-      <c r="C20">
         <v>0.04078387570537845</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42338</v>
       </c>
       <c r="B21">
-        <v>0.2478675289999999</v>
-      </c>
-      <c r="C21">
         <v>0.04853248602690541</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42369</v>
       </c>
       <c r="B22">
-        <v>0.3419250059999999</v>
-      </c>
-      <c r="C22">
         <v>0.07537456886579497</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42400</v>
       </c>
       <c r="B23">
-        <v>0.363482632</v>
-      </c>
-      <c r="C23">
         <v>0.01606470250096836</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42429</v>
       </c>
       <c r="B24">
-        <v>0.4237845809999998</v>
-      </c>
-      <c r="C24">
         <v>0.04422641519939785</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42460</v>
       </c>
       <c r="B25">
-        <v>0.494785268</v>
-      </c>
-      <c r="C25">
         <v>0.04986757684237086</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42490</v>
       </c>
       <c r="B26">
-        <v>0.4894220820000001</v>
-      </c>
-      <c r="C26">
         <v>-0.003587930731466016</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42521</v>
       </c>
       <c r="B27">
-        <v>0.5709075960000001</v>
-      </c>
-      <c r="C27">
         <v>0.05470948429244515</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42551</v>
       </c>
       <c r="B28">
-        <v>0.5997228860000001</v>
-      </c>
-      <c r="C28">
         <v>0.01834308400657836</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42582</v>
       </c>
       <c r="B29">
-        <v>0.6319927569999999</v>
-      </c>
-      <c r="C29">
         <v>0.02017216311800629</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42613</v>
       </c>
       <c r="B30">
-        <v>0.6656969380000002</v>
-      </c>
-      <c r="C30">
         <v>0.02065216334780606</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42643</v>
       </c>
       <c r="B31">
-        <v>0.6778762939999998</v>
-      </c>
-      <c r="C31">
         <v>0.007311867916755199</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42674</v>
       </c>
       <c r="B32">
-        <v>0.6603443920000001</v>
-      </c>
-      <c r="C32">
         <v>-0.01044886447391435</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42704</v>
       </c>
       <c r="B33">
-        <v>0.7065489679999999</v>
-      </c>
-      <c r="C33">
         <v>0.02782830852600604</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42735</v>
       </c>
       <c r="B34">
-        <v>0.7930281030000002</v>
-      </c>
-      <c r="C34">
         <v>0.05067486290847545</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42766</v>
       </c>
       <c r="B35">
-        <v>0.7860948959999998</v>
-      </c>
-      <c r="C35">
         <v>-0.003866758690731054</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42794</v>
       </c>
       <c r="B36">
-        <v>0.890052839</v>
-      </c>
-      <c r="C36">
         <v>0.05820404236797061</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42825</v>
       </c>
       <c r="B37">
-        <v>1.037302957</v>
-      </c>
-      <c r="C37">
         <v>0.07790793726058376</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42855</v>
       </c>
       <c r="B38">
-        <v>1.002623149</v>
-      </c>
-      <c r="C38">
         <v>-0.01702241086964662</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42886</v>
       </c>
       <c r="B39">
-        <v>1.048899645</v>
-      </c>
-      <c r="C39">
         <v>0.02310794021486662</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42916</v>
       </c>
       <c r="B40">
-        <v>1.082570823</v>
-      </c>
-      <c r="C40">
         <v>0.01643378585289379</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42947</v>
       </c>
       <c r="B41">
-        <v>1.126859791</v>
-      </c>
-      <c r="C41">
         <v>0.02126648828019206</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42978</v>
       </c>
       <c r="B42">
-        <v>1.134419462</v>
-      </c>
-      <c r="C42">
         <v>0.003554381455697975</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43008</v>
       </c>
       <c r="B43">
-        <v>1.165718724</v>
-      </c>
-      <c r="C43">
         <v>0.01466406325337388</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43039</v>
       </c>
       <c r="B44">
-        <v>1.21578126</v>
-      </c>
-      <c r="C44">
         <v>0.02311589932950131</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43069</v>
       </c>
       <c r="B45">
-        <v>1.201510468</v>
-      </c>
-      <c r="C45">
         <v>-0.00644052382679694</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43100</v>
       </c>
       <c r="B46">
-        <v>1.164921241</v>
-      </c>
-      <c r="C46">
         <v>-0.01662005588065185</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43131</v>
       </c>
       <c r="B47">
-        <v>1.298158601</v>
-      </c>
-      <c r="C47">
         <v>0.06154374462992296</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43159</v>
       </c>
       <c r="B48">
-        <v>1.295987953</v>
-      </c>
-      <c r="C48">
         <v>-0.0009445161874621633</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43190</v>
       </c>
       <c r="B49">
-        <v>1.269865323</v>
-      </c>
-      <c r="C49">
         <v>-0.01137751178784174</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43220</v>
       </c>
       <c r="B50">
-        <v>1.307594875</v>
-      </c>
-      <c r="C50">
         <v>0.01662193418159896</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43251</v>
       </c>
       <c r="B51">
-        <v>1.289077498</v>
-      </c>
-      <c r="C51">
         <v>-0.00802453550257598</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43281</v>
       </c>
       <c r="B52">
-        <v>1.284187597</v>
-      </c>
-      <c r="C52">
         <v>-0.002136188488276236</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43312</v>
       </c>
       <c r="B53">
-        <v>1.328626583</v>
-      </c>
-      <c r="C53">
         <v>0.01945505091541744</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43343</v>
       </c>
       <c r="B54">
-        <v>1.38237906</v>
-      </c>
-      <c r="C54">
         <v>0.02308333907738436</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43373</v>
       </c>
       <c r="B55">
-        <v>1.370337575</v>
-      </c>
-      <c r="C55">
         <v>-0.005054395080185015</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43404</v>
       </c>
       <c r="B56">
-        <v>1.49489978</v>
-      </c>
-      <c r="C56">
         <v>0.05255040729799831</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43434</v>
       </c>
       <c r="B57">
-        <v>1.534114586</v>
-      </c>
-      <c r="C57">
         <v>0.01571798847968142</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43465</v>
       </c>
       <c r="B58">
-        <v>1.489124359</v>
-      </c>
-      <c r="C58">
         <v>-0.01775382504348999</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43496</v>
       </c>
       <c r="B59">
-        <v>1.663544455</v>
-      </c>
-      <c r="C59">
         <v>0.07007287336582602</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43524</v>
       </c>
       <c r="B60">
-        <v>1.69753384</v>
-      </c>
-      <c r="C60">
         <v>0.01276096028215146</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43555</v>
       </c>
       <c r="B61">
-        <v>1.665498616</v>
-      </c>
-      <c r="C61">
         <v>-0.01187574499528798</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43585</v>
       </c>
       <c r="B62">
-        <v>1.658934843</v>
-      </c>
-      <c r="C62">
         <v>-0.002462493493937679</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43616</v>
       </c>
       <c r="B63">
-        <v>1.748329276</v>
-      </c>
-      <c r="C63">
         <v>0.03362039247984705</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43646</v>
       </c>
       <c r="B64">
-        <v>1.853304083</v>
-      </c>
-      <c r="C64">
         <v>0.03819586245239992</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43677</v>
       </c>
       <c r="B65">
-        <v>1.879684742</v>
-      </c>
-      <c r="C65">
         <v>0.00924565284057044</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43708</v>
       </c>
       <c r="B66">
-        <v>1.391483862</v>
-      </c>
-      <c r="C66">
         <v>-0.1695327522765339</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43738</v>
       </c>
       <c r="B67">
-        <v>1.465175366</v>
-      </c>
-      <c r="C67">
         <v>0.03081413392368537</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43769</v>
       </c>
       <c r="B68">
-        <v>1.573370129</v>
-      </c>
-      <c r="C68">
         <v>0.04388927639478934</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43799</v>
       </c>
       <c r="B69">
-        <v>1.471431916</v>
-      </c>
-      <c r="C69">
         <v>-0.03961272879141275</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43830</v>
       </c>
       <c r="B70">
-        <v>1.822258928</v>
-      </c>
-      <c r="C70">
         <v>0.1419529341386074</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43861</v>
       </c>
       <c r="B71">
-        <v>1.764196139</v>
-      </c>
-      <c r="C71">
         <v>-0.02057316159901257</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43890</v>
       </c>
       <c r="B72">
-        <v>1.520383726</v>
-      </c>
-      <c r="C72">
         <v>-0.0882037311173598</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43921</v>
       </c>
       <c r="B73">
-        <v>0.574439454</v>
-      </c>
-      <c r="C73">
         <v>-0.3753175606721085</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43951</v>
       </c>
       <c r="B74">
-        <v>0.6347827369999999</v>
-      </c>
-      <c r="C74">
         <v>0.03832683616171617</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43982</v>
       </c>
       <c r="B75">
-        <v>0.71575583</v>
-      </c>
-      <c r="C75">
         <v>0.04953140938385148</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>44012</v>
       </c>
       <c r="B76">
-        <v>0.822088299</v>
-      </c>
-      <c r="C76">
         <v>0.0619741265865319</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>44043</v>
       </c>
       <c r="B77">
-        <v>0.9181742289999999</v>
-      </c>
-      <c r="C77">
         <v>0.0527339591899767</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44074</v>
       </c>
       <c r="B78">
-        <v>0.847316282</v>
-      </c>
-      <c r="C78">
         <v>-0.03694030809544357</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44104</v>
       </c>
       <c r="B79">
-        <v>0.7285213669999999</v>
-      </c>
-      <c r="C79">
         <v>-0.06430675470005953</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44135</v>
       </c>
       <c r="B80">
-        <v>0.701093988</v>
-      </c>
-      <c r="C80">
         <v>-0.0158675383039103</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44165</v>
       </c>
       <c r="B81">
-        <v>0.8313743930000002</v>
-      </c>
-      <c r="C81">
-        <v>0.07658624739081743</v>
+        <v>0.05396235225540047</v>
       </c>
     </row>
   </sheetData>
